--- a/mbs-perturbation/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7272727272727274</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E2" t="n">
-        <v>0.650887573964497</v>
+        <v>0.08875739644970412</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3136094674556213</v>
+        <v>0.455621301775148</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4289940828402367</v>
+        <v>0.470414201183432</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3012820512820513</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3782051282051282</v>
+        <v>0.9006410256410257</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6866666666666668</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3705128205128205</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3927257525083613</v>
+        <v>0.3128674529132195</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4145956607495069</v>
+        <v>0.483086785009862</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/knn/nearmiss/bloated-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08875739644970412</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3076923076923077</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.455621301775148</v>
+        <v>0.9583333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.470414201183432</v>
+        <v>0.5075757575757576</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.7348484848484849</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9006410256410257</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.6011904761904762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.5045454545454546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3128674529132195</v>
+        <v>0.5251505016722409</v>
       </c>
       <c r="E7" t="n">
-        <v>0.483086785009862</v>
+        <v>0.6704545454545455</v>
       </c>
     </row>
   </sheetData>
